--- a/biology/Médecine/Benzylpénicilline/Benzylpénicilline.xlsx
+++ b/biology/Médecine/Benzylpénicilline/Benzylpénicilline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benzylp%C3%A9nicilline</t>
+          <t>Benzylpénicilline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La benzylpénicilline, couramment appelée pénicilline G, est un antibiotique bêta-lactamine à spectre étroit administré par injection intraveineuse ou intramusculaire comme traitement de la méningite, l'endocardite, la pneumonie aiguë, l'arthrite septique, le sepsis (septicémie) chez l'enfant, la diphtérie, la gangrène, la syphilis et la blennorragie (gonorrhée).
@@ -510,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Benzylp%C3%A9nicilline</t>
+          <t>Benzylpénicilline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,10 +540,12 @@
           <t>Prescription et disponibilité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[4].
-Pourtant sa fabrication en France métropolitaine a été arrêtée en janvier 2018[5], à la suite de la réservation de son administration au circuit hospitalier (pour éviter une sur-administration et le développement inquiétant de cas de résistance aux antibiotiques), conduisant à des difficultés de fourniture et même des ruptures complètes[6] et durables (y compris pour les pharmacies hospitalières régionales), alors que des produits génériques ne sont pas encore homologués en Europe (ou les laboratoires ont préféré délocaliser leur production). La fermeture de laboratoires de production en Europe (notamment ceux de Sandoz, devenu la branche génériques du groupe Novartis, qui ne peut plus fournir avec son dernier site en Allemagne, après la fermeture de son site de Bâle, il fabrique maintenant ses génériques en Inde et en Chine qui eux aussi limitent leurs productions et exportations), et l'absence de produits équivalents génériques homologués a conduit à une augmentation des prix alors que ce médicament était relativement peu onéreux à produire (ils sont aujourd'hui largement fabriqués et distribués notamment en Inde, au Brésil et en Chine, et encore aux États-Unis, mais sans les obligations et contraintes de qualité voulues dans le cahier des charges initial d'homologation).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
+Pourtant sa fabrication en France métropolitaine a été arrêtée en janvier 2018, à la suite de la réservation de son administration au circuit hospitalier (pour éviter une sur-administration et le développement inquiétant de cas de résistance aux antibiotiques), conduisant à des difficultés de fourniture et même des ruptures complètes et durables (y compris pour les pharmacies hospitalières régionales), alors que des produits génériques ne sont pas encore homologués en Europe (ou les laboratoires ont préféré délocaliser leur production). La fermeture de laboratoires de production en Europe (notamment ceux de Sandoz, devenu la branche génériques du groupe Novartis, qui ne peut plus fournir avec son dernier site en Allemagne, après la fermeture de son site de Bâle, il fabrique maintenant ses génériques en Inde et en Chine qui eux aussi limitent leurs productions et exportations), et l'absence de produits équivalents génériques homologués a conduit à une augmentation des prix alors que ce médicament était relativement peu onéreux à produire (ils sont aujourd'hui largement fabriqués et distribués notamment en Inde, au Brésil et en Chine, et encore aux États-Unis, mais sans les obligations et contraintes de qualité voulues dans le cahier des charges initial d'homologation).
 Les traitements alternatifs avec des pénicillines de classe V (comme l'amoxicilline, trop largement prescrite à tort en secteur libéral pour des infections non bactériennes, et elle aussi en situation tendue d'approvisionnement et sujette à une inflation des prix) et des mesures d'hygiène ne sont pas efficaces pour certaines infections bactériennes à risque élevé de transmission contagieuse et de complications sévères (notamment les IST bactériennes et méningites chez l'enfant), mais peuvent uniquement traiter ou éviter les coinfections opportunes les plus courantes plus faciles à traiter de façon symptomatique avec des mesures d'accompagnement.
 </t>
         </is>
